--- a/public/import/daily_template RSH 18.xlsx
+++ b/public/import/daily_template RSH 18.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" forceFullCalc="1"/>
+  <calcPr forceFullCalc="1" calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="64">
   <si>
     <t>date</t>
   </si>
@@ -166,30 +166,75 @@
     <t xml:space="preserve">Isi form monitoring penjualan dan report ke grup toko </t>
   </si>
   <si>
-    <t>2022-06-18</t>
+    <t>Mencatat hasil briefing dan reportkan ke grup atau leader masing - masing</t>
+  </si>
+  <si>
+    <t>Report penjualan pertim toko ke grup masing - masing area</t>
+  </si>
+  <si>
+    <t>rsh wajib monitoring Pengisian  SOA japri ke tim Toko dan promotor</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>2022-08-1</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-08-1l7</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-08-17l8</t>
+  </si>
+  <si>
+    <t>2022-08-1o</t>
+  </si>
+  <si>
+    <t>2022-08-1olo</t>
+  </si>
+  <si>
+    <t>2022-08-18l9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Tw Cen MT"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,31 +270,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" count="0"/>
 </styleSheet>
 </file>
 
@@ -296,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,9 +377,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,6 +412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,7 +521,7 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
@@ -537,22 +588,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A18" zoomScale="80">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="134.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" customWidth="1" width="18.425781" style="1"/>
+    <col min="2" max="2" customWidth="1" width="134.14062" style="2"/>
+    <col min="3" max="3" customWidth="1" width="17.0" style="1"/>
+    <col min="4" max="16384" customWidth="0" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="8:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,319 +614,342 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="8:8" ht="16.2">
       <c r="A2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
+    <row r="3" spans="8:8" ht="16.2">
       <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6">
+    <row r="4" spans="8:8" ht="16.2">
       <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
+    <row r="5" spans="8:8" ht="16.2">
       <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6">
+    <row r="6" spans="8:8" ht="16.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6">
+    <row r="7" spans="8:8" ht="16.2">
       <c r="A7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6">
+    <row r="8" spans="8:8" ht="16.2">
       <c r="A8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6">
+    <row r="9" spans="8:8" ht="16.2">
       <c r="A9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6">
+    <row r="10" spans="8:8" ht="16.2">
       <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6">
+    <row r="11" spans="8:8" ht="16.2">
       <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6">
+    <row r="12" spans="8:8" ht="16.2">
       <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6">
+    <row r="13" spans="8:8" ht="16.2">
       <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6">
+    <row r="14" spans="8:8" ht="16.2">
       <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6">
+    <row r="15" spans="8:8" ht="16.2">
       <c r="A15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6">
+    <row r="16" spans="8:8" ht="16.2">
       <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6">
+    <row r="17" spans="8:8" ht="16.2">
       <c r="A17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6">
+    <row r="18" spans="8:8" ht="16.2">
       <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6">
+    <row r="19" spans="8:8" ht="16.2">
       <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6">
+    <row r="20" spans="8:8" ht="16.2">
       <c r="A20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" ht="16.2">
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" ht="16.2">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" ht="15.0" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" ht="16.2">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" ht="15.0" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" ht="16.2">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" ht="16.2">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" ht="16.2">
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" ht="16.2">
+      <c r="A29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" ht="16.2">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" ht="16.2">
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" ht="16.2">
+      <c r="A32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" ht="16.2">
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6">
-      <c r="A21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6">
-      <c r="A22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6">
-      <c r="A27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.6">
-      <c r="A29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6">
-      <c r="A30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6">
-      <c r="A31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.6">
-      <c r="A32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="A36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>